--- a/Input/Orient_Healthplus/rateSheet1.xlsx
+++ b/Input/Orient_Healthplus/rateSheet1.xlsx
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Consultations AED 50, medicines 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary - Investor</t>
+    <t xml:space="preserve">primary_investor</t>
   </si>
   <si>
     <t xml:space="preserve">dependent</t>
@@ -261,7 +261,7 @@
   <dimension ref="A1:L703"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
